--- a/Daten/TargetInput.xlsx
+++ b/Daten/TargetInput.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drewanz\Desktop\Open Campus\Gruppe-4\Daten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9551222A-BC00-42F4-8857-8A26066D1E8B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E257FDAE-A2DB-494B-B6C7-C671B4D82C72}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
